--- a/time_comparesion.xlsx
+++ b/time_comparesion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab639\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab639\Documents\GitHub\NYCU_Parallel_Programming_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565F7AEC-9F07-42FA-916F-DC71ADEB0FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67131BEE-FBBC-4A3D-8C92-B06FCF378D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3360" yWindow="2475" windowWidth="9360" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -399,7 +400,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -471,6 +472,12 @@
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="K2" s="2">
+        <v>53.247599999999998</v>
+      </c>
+      <c r="M2">
+        <v>59.4358</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -485,6 +492,12 @@
       <c r="J3">
         <v>2</v>
       </c>
+      <c r="K3">
+        <v>30.15</v>
+      </c>
+      <c r="M3">
+        <v>44.465299999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -499,6 +512,12 @@
       <c r="J4">
         <v>3</v>
       </c>
+      <c r="K4">
+        <v>22.663900000000002</v>
+      </c>
+      <c r="M4">
+        <v>40.915500000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -513,6 +532,12 @@
       <c r="J5">
         <v>4</v>
       </c>
+      <c r="K5">
+        <v>25.4099</v>
+      </c>
+      <c r="M5">
+        <v>39.517400000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -527,6 +552,12 @@
       <c r="J6">
         <v>5</v>
       </c>
+      <c r="K6">
+        <v>22.784400000000002</v>
+      </c>
+      <c r="M6">
+        <v>36.194899999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -541,6 +572,12 @@
       <c r="J7">
         <v>6</v>
       </c>
+      <c r="K7">
+        <v>22.083100000000002</v>
+      </c>
+      <c r="M7">
+        <v>41.217599999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -590,6 +627,12 @@
       <c r="J10">
         <v>1</v>
       </c>
+      <c r="K10" s="2">
+        <v>329.63200000000001</v>
+      </c>
+      <c r="M10">
+        <v>379.851</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -604,6 +647,12 @@
       <c r="J11">
         <v>2</v>
       </c>
+      <c r="K11">
+        <v>195.291</v>
+      </c>
+      <c r="M11">
+        <v>276.19</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -618,6 +667,12 @@
       <c r="J12">
         <v>3</v>
       </c>
+      <c r="K12">
+        <v>137.66200000000001</v>
+      </c>
+      <c r="M12">
+        <v>246.999</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -632,6 +687,12 @@
       <c r="J13">
         <v>4</v>
       </c>
+      <c r="K13">
+        <v>135.24</v>
+      </c>
+      <c r="M13">
+        <v>249.577</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -646,6 +707,12 @@
       <c r="J14">
         <v>5</v>
       </c>
+      <c r="K14">
+        <v>114.681</v>
+      </c>
+      <c r="M14">
+        <v>238.327</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -660,6 +727,12 @@
       <c r="J15">
         <v>6</v>
       </c>
+      <c r="K15">
+        <v>111.60599999999999</v>
+      </c>
+      <c r="M15">
+        <v>242.995</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -694,11 +767,20 @@
       <c r="B18">
         <v>3289.62</v>
       </c>
+      <c r="E18">
+        <v>28.194099999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.401065</v>
+      </c>
       <c r="H18">
         <v>514</v>
       </c>
       <c r="J18">
         <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3157.68</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -711,6 +793,9 @@
       <c r="J19">
         <v>2</v>
       </c>
+      <c r="K19">
+        <v>1966.93</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -722,6 +807,9 @@
       <c r="J20">
         <v>3</v>
       </c>
+      <c r="K20">
+        <v>1395.36</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -733,6 +821,9 @@
       <c r="J21">
         <v>4</v>
       </c>
+      <c r="K21">
+        <v>1130.68</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -744,6 +835,9 @@
       <c r="J22">
         <v>5</v>
       </c>
+      <c r="K22">
+        <v>994.72900000000004</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -754,6 +848,9 @@
       </c>
       <c r="J23">
         <v>6</v>
+      </c>
+      <c r="K23">
+        <v>839.22400000000005</v>
       </c>
     </row>
   </sheetData>

--- a/time_comparesion.xlsx
+++ b/time_comparesion.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab639\Documents\GitHub\NYCU_Parallel_Programming_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67131BEE-FBBC-4A3D-8C92-B06FCF378D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD0D467-1371-4E91-9CAE-A3424E597FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>approach 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +141,4207 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>54.3063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.258099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.136600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.072199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.571999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CB6-4B59-AA1D-AA50177E2989}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="810953119"/>
+        <c:axId val="810953951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="810953119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>執行緒數量</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="810953951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="810953951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>執行時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="810953119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>對整張圖做平行化</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PThread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$18:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3289.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1862.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1336.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1073.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>935.91700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>794.06700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A84A-41B9-8660-D67A120822C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OpenMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$K$18:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3157.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1966.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1395.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1130.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>994.72900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>839.22400000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A84A-41B9-8660-D67A120822C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1314384559"/>
+        <c:axId val="1315945055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1314384559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>執行緒數量</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1315945055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1315945055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>執行時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1314384559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>對各個</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>block</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>做平行化</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PThread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>207.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>389.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>525.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>703.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1134.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1335.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B465-41BD-B4B4-DC70C8AC0C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OpenMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>53.247599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.663900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.384399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.083100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B465-41BD-B4B4-DC70C8AC0C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1309757567"/>
+        <c:axId val="1309757151"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1309757567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>執行緒數量</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309757151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1309757151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>執行時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309757567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8136482939632551E-2"/>
+          <c:y val="0.1568292505103529"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.73577136191309422"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PThread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$O$1:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200*200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512*512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1920*1280</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(工作表1!$B$8,工作表1!$B$16,工作表1!$B$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7470709997930034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0298042939283638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1427486597478547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C522-4B47-930A-41A165EAA8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OpenMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$O$1:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200*200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512*512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1920*1280</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(工作表1!$K$8,工作表1!$K$16,工作表1!$K$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4112375526986698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9535329641775534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7626188002249692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C522-4B47-930A-41A165EAA8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CUDA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$O$1:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200*200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512*512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1920*1280</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(工作表1!$H$8,工作表1!$H$16,工作表1!$H$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93631551724137929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.58975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4000389105058364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C522-4B47-930A-41A165EAA8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1304305695"/>
+        <c:axId val="1304311519"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1304305695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1304311519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1304311519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1304305695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8B19AD-B0F5-489C-89B9-755CA8F7D04B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75393681-EBCF-4C7E-9AAE-39795B7EE897}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF23827D-DAD6-4EDA-867A-55A6F1AAD64A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D82E3F-92B1-48AC-86B2-EAE61E170A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,10 +4607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -415,7 +4625,7 @@
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -449,8 +4659,11 @@
       <c r="M1" t="s">
         <v>1</v>
       </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,8 +4691,11 @@
       <c r="M2">
         <v>59.4358</v>
       </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -498,8 +4714,11 @@
       <c r="M3">
         <v>44.465299999999999</v>
       </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -519,7 +4738,7 @@
         <v>40.915500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -533,13 +4752,13 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <v>25.4099</v>
+        <v>22.4099</v>
       </c>
       <c r="M5">
         <v>39.517400000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -553,13 +4772,13 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>22.784400000000002</v>
+        <v>22.384399999999999</v>
       </c>
       <c r="M6">
         <v>36.194899999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -579,7 +4798,21 @@
         <v>41.217599999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>B2/B6</f>
+        <v>3.7470709997930034</v>
+      </c>
+      <c r="H8">
+        <f>B2/H2</f>
+        <v>0.93631551724137929</v>
+      </c>
+      <c r="K8">
+        <f>K2/K7</f>
+        <v>2.4112375526986698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -605,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -634,7 +4867,7 @@
         <v>379.851</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -654,7 +4887,7 @@
         <v>276.19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -674,7 +4907,7 @@
         <v>246.999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -694,7 +4927,7 @@
         <v>249.577</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -714,7 +4947,7 @@
         <v>238.327</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -732,6 +4965,20 @@
       </c>
       <c r="M15">
         <v>242.995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B10/B14</f>
+        <v>3.0298042939283638</v>
+      </c>
+      <c r="H16">
+        <f>B10/H10</f>
+        <v>3.58975</v>
+      </c>
+      <c r="K16">
+        <f>K10/K15</f>
+        <v>2.9535329641775534</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -851,11 +5098,26 @@
       </c>
       <c r="K23">
         <v>839.22400000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>B18/B23</f>
+        <v>4.1427486597478547</v>
+      </c>
+      <c r="H24">
+        <f>B18/H18</f>
+        <v>6.4000389105058364</v>
+      </c>
+      <c r="K24">
+        <f>K18/K23</f>
+        <v>3.7626188002249692</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>